--- a/biology/Zoologie/Aquarium_de_Géorgie/Aquarium_de_Géorgie.xlsx
+++ b/biology/Zoologie/Aquarium_de_Géorgie/Aquarium_de_Géorgie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aquarium_de_G%C3%A9orgie</t>
+          <t>Aquarium_de_Géorgie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aquarium de Géorgie (en anglais Georgia Aquarium) est un aquarium américain situé dans la ville d'Atlanta, capitale de l’État de Géorgie. C'est un aquarium de 32 000 m3 (soit 32 millions de litres d'eau). Plus grand aquarium des États-Unis et troisième plus grand aquarium du monde, il abrite plus de 120 000 animaux de 500 espèces différentes. Le bâtiment fut financé en grande partie grâce à une donation de 250 millions de dollars de Bernard Marcus, le fondateur de Home Depot. Étendu sur plus de 8 ha, il est situé dans le nord du Centennial Olympic Park, près du centre-ville d'Atlanta.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aquarium_de_G%C3%A9orgie</t>
+          <t>Aquarium_de_Géorgie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En novembre 2001, Bernard Marcus annonça son idée de bâtir un aquarium comme cadeau à la ville d'Atlanta, qui encouragerait une croissance économique et un enrichissement culturel. Marcus et son épouse Billi visitent 56 aquariums dans 13 pays différents afin de rechercher et de concevoir une structure de ce type, ils donnent alors 250 millions de dollars pour financer la construction de l'aquarium de Géorgie. De nombreuses grandes entreprises telles que Coca-Cola, Turner Broadcasting, Home Depot, UPS, AirTran Airways, AT&amp;T, Georgia-Pacific, Time Warner, SunTrust et Southern Company ont donné 40 millions de dollars de plus. Leur dons ont permis à l'aquarium d'ouvrir sans avoir de dettes.
 Marcus embaucha alors Jeff Swanagan, l'ancien directeur de l'aquarium de Floride, en tant que premier employé de l'Aquarium de Géorgie en 2002. Swanagan est connu pour avoir redressé la situation économique difficile de l'Aquarium de Floride quand il en était directeur. Il est également responsable de nombreux aspects au sein de l'Aquarium, de la conception de la structure à l’approvisionnement des animaux pour les bassins.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aquarium_de_G%C3%A9orgie</t>
+          <t>Aquarium_de_Géorgie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Collection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aquarium de Géorgie contient entre 100 000 et 120 000 animaux aquatiques de plus de 500 espèces différentes. Les poissons ont été transportés de Taïwan à l'aquarium par UPS dans 42 bassins à bord d'un avion MD-11. UPS a donné à l'Aquarium le montant des frais de livraison, estimé à plus de 200 000 dollars.
 Les spécimens les plus connus de l'aquarium étaient quatre jeunes requins-baleines de Taïwan : Ralph, Norton, Alice et Trixie (nommés en l'honneur des quatre personnages principaux de The Honeymooners). Ralph est mort d'une péritonite le 11 janvier 2007, et Norton, après qu'il cesse de manger et commence à nager de manière erratique, a été euthanasié le 13 juin 2007. Ralph et Norton étaient là à l'ouverture de l'aquarium, Alice et Trixie les ont rejoints le 3 juin 2006.
